--- a/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2019_top_box_office.xlsx
+++ b/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2019_top_box_office.xlsx
@@ -472,12 +472,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Toy Story 4</t>
+          <t>Star Wars: Episode IX - The Rise of Skywalker</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$434,038,008</t>
+          <t>$515,202,542</t>
         </is>
       </c>
     </row>
@@ -489,31 +489,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$430,144,682</t>
+          <t>$477,373,578</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Captain Marvel</t>
+          <t>Toy Story 4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$426,829,839</t>
+          <t>$434,038,008</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Star Wars: Episode IX - The Rise of Skywalker</t>
+          <t>Captain Marvel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$390,706,234</t>
+          <t>$426,829,839</t>
         </is>
       </c>
     </row>
@@ -549,31 +549,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$333,772,511</t>
+          <t>$335,451,311</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>It Chapter Two</t>
+          <t>Jumanji: The Next Level</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$211,593,228</t>
+          <t>$320,314,960</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jumanji: The Next Level</t>
+          <t>It Chapter Two</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$192,094,536</t>
+          <t>$211,593,228</t>
         </is>
       </c>
     </row>
@@ -616,252 +616,252 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>How to Train Your Dragon: The Hidden World</t>
+          <t>Knives Out</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$160,799,505</t>
+          <t>$165,363,234</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>The Secret Life of Pets 2</t>
+          <t>How to Train Your Dragon: The Hidden World</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$157,949,395</t>
+          <t>$160,799,505</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pokémon: Detective Pikachu</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$144,105,346</t>
+          <t>$159,227,644</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Once Upon a Time in Hollywood</t>
+          <t>The Secret Life of Pets 2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$141,076,968</t>
+          <t>$158,874,395</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Shazam!</t>
+          <t>Pokémon: Detective Pikachu</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$140,371,656</t>
+          <t>$144,105,346</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aquaman</t>
+          <t>Once Upon a Time in Hollywood</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$136,001,983</t>
+          <t>$142,502,728</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Knives Out</t>
+          <t>Shazam!</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$115,711,579</t>
+          <t>$140,371,656</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dumbo</t>
+          <t>Ford v Ferrari</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$114,766,307</t>
+          <t>$117,624,357</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Maleficent: Mistress of Evil</t>
+          <t>Dumbo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$113,294,737</t>
+          <t>$114,766,307</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Glass</t>
+          <t>Maleficent: Mistress of Evil</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$111,048,468</t>
+          <t>$113,929,605</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Godzilla: King of the Monsters</t>
+          <t>Glass</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$110,500,138</t>
+          <t>$111,048,468</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>The Upside</t>
+          <t>Godzilla: King of the Monsters</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$108,252,517</t>
+          <t>$110,500,138</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ford v Ferrari</t>
+          <t>The Upside</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$107,196,444</t>
+          <t>$108,252,517</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>The Lego Movie 2: The Second Part</t>
+          <t>Little Women</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$105,806,508</t>
+          <t>$108,101,214</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hustlers</t>
+          <t>The Lego Movie 2: The Second Part</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$104,960,643</t>
+          <t>$105,806,508</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>The Addams Family</t>
+          <t>Hustlers</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$97,185,807</t>
+          <t>$104,963,598</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Downton Abbey</t>
+          <t>The Addams Family</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$96,853,865</t>
+          <t>$100,044,905</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Rocketman</t>
+          <t>Downton Abbey</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$96,368,160</t>
+          <t>$96,853,865</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Alita: Battle Angel</t>
+          <t>Rocketman</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$85,710,210</t>
+          <t>$96,368,160</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Good Boys</t>
+          <t>Alita: Battle Angel</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$83,140,306</t>
+          <t>$85,838,210</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Spider-Man: Into the Spider-Verse</t>
+          <t>Good Boys</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$82,094,865</t>
+          <t>$83,140,306</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$72,930,156</t>
+          <t>$73,123,082</t>
         </is>
       </c>
     </row>
@@ -952,12 +952,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mary Poppins Returns</t>
+          <t>Spies in Disguise</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$66,027,977</t>
+          <t>$66,757,013</t>
         </is>
       </c>
     </row>
@@ -988,48 +988,48 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Abominable</t>
+          <t>A Beautiful Day in the Neighborhood</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$60,679,265</t>
+          <t>$61,704,055</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dora and the Lost City of Gold</t>
+          <t>Abominable</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$60,477,943</t>
+          <t>$60,716,390</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Escape Room</t>
+          <t>Dora and the Lost City of Gold</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$57,005,601</t>
+          <t>$60,477,943</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A Beautiful Day in the Neighborhood</t>
+          <t>Escape Room</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$56,706,993</t>
+          <t>$57,005,601</t>
         </is>
       </c>
     </row>
@@ -1041,79 +1041,79 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$56,279,164</t>
+          <t>$56,846,802</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bumblebee</t>
+          <t>The Curse of La Llorona</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$55,769,470</t>
+          <t>$54,733,739</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>The Curse of La Llorona</t>
+          <t>Pet Sematary</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$54,733,739</t>
+          <t>$54,724,696</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Pet Sematary</t>
+          <t>What Men Want</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$54,724,696</t>
+          <t>$54,611,903</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>What Men Want</t>
+          <t>Parasite</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$54,611,903</t>
+          <t>$53,369,749</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Green Book</t>
+          <t>Ad Astra</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$52,927,165</t>
+          <t>$50,188,370</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ad Astra</t>
+          <t>Uncut Gems</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$50,188,370</t>
+          <t>$50,023,780</t>
         </is>
       </c>
     </row>
@@ -1197,67 +1197,67 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$44,151,387</t>
+          <t>$44,451,847</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Harriet</t>
+          <t>Queen &amp; Slim</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$42,547,700</t>
+          <t>$43,808,310</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A Dog's Way Home</t>
+          <t>Harriet</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$42,004,346</t>
+          <t>$43,082,155</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>The Angry Birds Movie 2</t>
+          <t>A Dog's Way Home</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$41,667,116</t>
+          <t>$42,004,346</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Little</t>
+          <t>The Angry Birds Movie 2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$40,860,481</t>
+          <t>$41,667,116</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Queen &amp; Slim</t>
+          <t>Little</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$40,718,945</t>
+          <t>$40,860,481</t>
         </is>
       </c>
     </row>
@@ -1276,84 +1276,84 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>The Mule</t>
+          <t>Crawl</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$39,084,073</t>
+          <t>$39,014,193</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Crawl</t>
+          <t>Just Mercy</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$39,014,193</t>
+          <t>$36,001,502</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Little Women</t>
+          <t>The Intruder</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$37,593,127</t>
+          <t>$35,419,122</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>The Intruder</t>
+          <t>The Hustle</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$35,419,122</t>
+          <t>$35,417,038</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>The Hustle</t>
+          <t>Last Christmas</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$35,417,038</t>
+          <t>$35,150,750</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Last Christmas</t>
+          <t>Overcomer</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$35,116,450</t>
+          <t>$34,746,945</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Overcomer</t>
+          <t>Jojo Rabbit</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$34,746,945</t>
+          <t>$33,370,906</t>
         </is>
       </c>
     </row>
@@ -1372,48 +1372,48 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Doctor Sleep</t>
+          <t>Bombshell</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$31,543,097</t>
+          <t>$31,762,808</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Dragon Ball Super: Broly</t>
+          <t>Doctor Sleep</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$30,712,119</t>
+          <t>$31,581,712</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Long Shot</t>
+          <t>Dragon Ball Super: Broly</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$30,316,271</t>
+          <t>$30,712,119</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Spies in Disguise</t>
+          <t>Long Shot</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$29,323,688</t>
+          <t>$30,316,271</t>
         </is>
       </c>
     </row>
@@ -1444,1404 +1444,1404 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Happy Death Day 2U</t>
+          <t>21 Bridges</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$28,148,130</t>
+          <t>$28,539,757</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Vice</t>
+          <t>Happy Death Day 2U</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$28,060,115</t>
+          <t>$28,148,130</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>21 Bridges</t>
+          <t>Midsommar</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$27,747,269</t>
+          <t>$27,426,361</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Midsommar</t>
+          <t>Cats</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$27,426,361</t>
+          <t>$27,166,770</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Bohemian Rhapsody</t>
+          <t>The Art of Racing in the Rain</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$26,614,909</t>
+          <t>$26,395,642</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>The Art of Racing in the Rain</t>
+          <t>Countdown</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$26,395,642</t>
+          <t>$25,621,766</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Countdown</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$25,594,369</t>
+          <t>$24,313,888</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Uncut Gems</t>
+          <t>Fighting with My Family</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$25,253,119</t>
+          <t>$22,958,886</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>A Dog's Journey</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$24,017,545</t>
+          <t>$22,782,371</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ralph Breaks the Internet</t>
+          <t>Booksmart</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$23,474,857</t>
+          <t>$22,680,962</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Fighting with My Family</t>
+          <t>Stuber</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$22,958,886</t>
+          <t>$22,370,452</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>On the Basis of Sex</t>
+          <t>Richard Jewell</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$22,946,065</t>
+          <t>$22,345,542</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A Dog's Journey</t>
+          <t>47 Meters Down: Uncaged</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$22,782,371</t>
+          <t>$22,260,900</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Booksmart</t>
+          <t>Black and Blue</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$22,680,962</t>
+          <t>$22,055,313</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Parasite</t>
+          <t>Hellboy</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$22,633,689</t>
+          <t>$21,903,748</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Stuber</t>
+          <t>Shaft</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$22,370,452</t>
+          <t>$21,360,215</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>47 Meters Down: Uncaged</t>
+          <t>The Peanut Butter Falcon</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$22,260,900</t>
+          <t>$20,457,151</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Black and Blue</t>
+          <t>UglyDolls</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$22,047,506</t>
+          <t>$20,150,241</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Hellboy</t>
+          <t>Unplanned</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$21,903,748</t>
+          <t>$19,005,109</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Shaft</t>
+          <t>Charlie's Angels</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$21,360,215</t>
+          <t>$17,803,077</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Jojo Rabbit</t>
+          <t>The Farewell</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$21,059,726</t>
+          <t>$17,695,781</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>The Peanut Butter Falcon</t>
+          <t>Brightburn</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$20,457,151</t>
+          <t>$17,300,439</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>UglyDolls</t>
+          <t>The Good Liar</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>$20,150,241</t>
+          <t>$17,156,058</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Cats</t>
+          <t>The Kid Who Would Be King</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>$19,970,095</t>
+          <t>$16,790,790</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Unplanned</t>
+          <t>Missing Link</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>$19,006,109</t>
+          <t>$16,649,539</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>The Favourite</t>
+          <t>Late Night</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>$18,478,318</t>
+          <t>$15,499,454</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bombshell</t>
+          <t>Miss Bala</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>$18,117,885</t>
+          <t>$15,006,824</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Richard Jewell</t>
+          <t>The Prodigy</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>$17,822,217</t>
+          <t>$14,856,291</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Charlie's Angels</t>
+          <t>Poms</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>$17,756,400</t>
+          <t>$13,631,124</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>The Farewell</t>
+          <t>Apocalypse NowThe Final Cut</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>$17,695,781</t>
+          <t>$12,500,000</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Brightburn</t>
+          <t>The Kitchen</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>$17,300,439</t>
+          <t>$12,180,032</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>The Good Liar</t>
+          <t>After</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>$16,973,279</t>
+          <t>$12,138,565</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>The Kid Who Would Be King</t>
+          <t>Blinded by the Light</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>$16,790,790</t>
+          <t>$11,901,145</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Missing Link</t>
+          <t>Dark Waters</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>$16,649,539</t>
+          <t>$11,136,084</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Second Act</t>
+          <t>The Lighthouse</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>$15,737,285</t>
+          <t>$10,867,104</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Late Night</t>
+          <t>Greta</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>$15,499,454</t>
+          <t>$10,532,219</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Miss Bala</t>
+          <t>Black Christmas</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>$15,006,824</t>
+          <t>$10,429,730</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>The Prodigy</t>
+          <t>The Best of Enemies</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>$14,856,291</t>
+          <t>$10,205,616</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A Star Is Born</t>
+          <t>Hotel Mumbai</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>$14,130,981</t>
+          <t>$9,651,611</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Poms</t>
+          <t>Motherless Brooklyn</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>$13,631,124</t>
+          <t>$9,277,736</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>If Beale Street Could Talk</t>
+          <t>No Manches Frida 2</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>$12,786,569</t>
+          <t>$9,270,920</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>They Shall Not Grow Old</t>
+          <t>Where'd You Go, Bernadette</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>$12,253,074</t>
+          <t>$9,198,356</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>The Kitchen</t>
+          <t>Apollo 11</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>$12,180,032</t>
+          <t>$9,039,891</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>After</t>
+          <t>Serenity</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>$12,138,565</t>
+          <t>$8,547,045</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Blinded by the Light</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>$11,901,145</t>
+          <t>$7,743,794</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>The Lighthouse</t>
+          <t>Penguins</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>$10,772,524</t>
+          <t>$7,699,452</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Dark Waters</t>
+          <t>Brittany Runs a Marathon</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>$10,633,879</t>
+          <t>$7,189,808</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Greta</t>
+          <t>The Dead Don't Die</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>$10,532,219</t>
+          <t>$6,563,605</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>The Best of Enemies</t>
+          <t>Jexi</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>$10,205,616</t>
+          <t>$6,546,159</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Black Christmas</t>
+          <t>Run the Race</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>$9,867,670</t>
+          <t>$6,424,420</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Hotel Mumbai</t>
+          <t>The Current War: Director's Cut</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>$9,651,611</t>
+          <t>$5,979,540</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Holmes &amp; Watson</t>
+          <t>The Wandering Earth</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>$9,324,376</t>
+          <t>$5,971,413</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Motherless Brooklyn</t>
+          <t>Captive State</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>$9,277,736</t>
+          <t>$5,958,315</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>No Manches Frida 2</t>
+          <t>Arctic Dogs</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>$9,270,920</t>
+          <t>$5,801,249</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Where'd You Go, Bernadette</t>
+          <t>Gloria Bell</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>$9,198,356</t>
+          <t>$5,611,123</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Apollo 11</t>
+          <t>Gully Boy</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>$9,039,891</t>
+          <t>$5,566,534</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Serenity</t>
+          <t>The Goldfinch</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>$8,547,045</t>
+          <t>$5,332,621</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Don't Let Go</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>$7,743,794</t>
+          <t>$5,215,062</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Penguins</t>
+          <t>The Mustang</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>$7,699,452</t>
+          <t>$5,043,620</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Brittany Runs a Marathon</t>
+          <t>The Sun Is Also a Star</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>$7,189,808</t>
+          <t>$4,950,029</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Mary Queen of Scots</t>
+          <t>Bring the Soul: The Movie</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>$6,742,269</t>
+          <t>$4,809,800</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The Dead Don't Die</t>
+          <t>Menteur</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>$6,563,605</t>
+          <t>$4,697,364</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Jexi</t>
+          <t>War</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>$6,546,159</t>
+          <t>$4,654,000</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Run the Race</t>
+          <t>Pavarotti</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>$6,424,420</t>
+          <t>$4,600,249</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Free Solo</t>
+          <t>Jay and Silent Bob Reboot</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>$6,300,518</t>
+          <t>$4,589,490</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>The Current War: Director's Cut</t>
+          <t>Pain and Glory</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>$5,979,540</t>
+          <t>$4,567,338</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Captive State</t>
+          <t>Tolkien</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>$5,958,315</t>
+          <t>$4,535,154</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>The Wandering Earth</t>
+          <t>The Last Black Man in San Francisco</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>$5,875,487</t>
+          <t>$4,515,719</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Arctic Dogs</t>
+          <t>Brian Banks</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>$5,801,249</t>
+          <t>$4,376,819</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Gloria Bell</t>
+          <t>The Biggest Little Farm</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>$5,611,123</t>
+          <t>$4,366,949</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Gully Boy</t>
+          <t>Linda Ronstadt: The Sound of My Voice</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>$5,566,534</t>
+          <t>$4,252,657</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Stan &amp; Ollie</t>
+          <t>Uri: The Surgical Strike</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>$5,386,243</t>
+          <t>$4,186,168</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>The Goldfinch</t>
+          <t>Replicas</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>$5,332,621</t>
+          <t>$4,046,429</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Don't Let Go</t>
+          <t>Ip Man 4: The Finale</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>$5,215,062</t>
+          <t>$3,956,031</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>The Mustang</t>
+          <t>Portrait of a Lady on Fire</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>$5,043,620</t>
+          <t>$3,759,854</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>The Sun Is Also a Star</t>
+          <t>Ne Zha</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>$4,950,029</t>
+          <t>$3,695,533</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Bring the Soul: The Movie</t>
+          <t>Mission Mangal</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>$4,809,800</t>
+          <t>$3,659,413</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Pavarotti</t>
+          <t>The Oscar Nominated Short Films 2019: Documentary</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>$4,600,249</t>
+          <t>$3,531,094</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Tolkien</t>
+          <t>BTS World Tour: Love Yourself in Seoul</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>$4,535,154</t>
+          <t>$3,509,917</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>The Last Black Man in San Francisco</t>
+          <t>The Beach Bum</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>$4,515,719</t>
+          <t>$3,502,600</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>War</t>
+          <t>Echo in the Canyon</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>$4,486,000</t>
+          <t>$3,355,324</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Cold War2018 Re-release</t>
+          <t>Maiden</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>$4,427,217</t>
+          <t>$3,168,978</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Menteur</t>
+          <t>Honey Boy</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$4,403,322</t>
+          <t>$3,012,615</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Brian Banks</t>
+          <t>Bharat</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$4,376,819</t>
+          <t>$2,971,549</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>The Biggest Little Farm</t>
+          <t>Friends 25th: The One With The Anniversary</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$4,366,949</t>
+          <t>$2,884,827</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>The Grinch</t>
+          <t>Saaho</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$4,340,540</t>
+          <t>$2,872,057</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Amazing Grace</t>
+          <t>Kalank</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$4,335,184</t>
+          <t>$2,729,336</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Linda Ronstadt: The Sound of My Voice</t>
+          <t>Tod@s caen</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$4,240,509</t>
+          <t>$2,670,925</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Uri: The Surgical Strike</t>
+          <t>Everybody Knows</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$4,186,168</t>
+          <t>$2,660,165</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Replicas</t>
+          <t>Promare</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$4,046,429</t>
+          <t>$2,529,324</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Pain and Glory</t>
+          <t>The Art of Self-Defense</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>$3,873,727</t>
+          <t>$2,410,914</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Ne Zha</t>
+          <t>Arctic2019 Re-release</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>$3,695,533</t>
+          <t>$2,410,795</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Mission Mangal</t>
+          <t>My People, My Country</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>$3,659,413</t>
+          <t>$2,356,683</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>The Oscar Nominated Short Films 2019: Documentary</t>
+          <t>Super 30</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$3,531,094</t>
+          <t>$2,269,878</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BTS World Tour: Love Yourself in Seoul</t>
+          <t>Faustina: Love and Mercy</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$3,509,917</t>
+          <t>$2,243,180</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>The Beach Bum</t>
+          <t>Gone with the Wind2019 Re-release</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>$3,502,600</t>
+          <t>$2,176,120</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Echo in the Canyon</t>
+          <t>3 from Hell</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>$3,355,324</t>
+          <t>$2,172,949</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Creed II</t>
+          <t>Total Dhamaal</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>$3,267,369</t>
+          <t>$2,167,632</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Jay and Silent Bob Reboot</t>
+          <t>Housefull 4</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>$3,258,814</t>
+          <t>$2,109,160</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Maiden</t>
+          <t>The Wizard of Oz2019 Re-release</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>$3,164,840</t>
+          <t>$2,076,020</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Simmba</t>
+          <t>Luce</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$2,991,179</t>
+          <t>$2,010,613</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Bharat</t>
+          <t>Chhichhore</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$2,971,549</t>
+          <t>$2,004,400</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Honey Boy</t>
+          <t>Official Secrets</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$2,939,993</t>
+          <t>$1,988,546</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Friends 25th: The One With The Anniversary</t>
+          <t>Better Days</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$2,884,827</t>
+          <t>$1,921,657</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Saaho</t>
+          <t>Badla</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$2,872,057</t>
+          <t>$1,861,000</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Fantastic Beasts: The Crimes of Grindelwald</t>
+          <t>The White Crow</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$2,774,042</t>
+          <t>$1,828,784</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Kalank</t>
+          <t>The Other Side of Heaven 2: Fire of Faith</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$2,729,336</t>
+          <t>$1,807,216</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Tod@s caen</t>
+          <t>Fantastic Fungi</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$2,670,925</t>
+          <t>$1,788,322</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Everybody Knows</t>
+          <t>A Hidden Life</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$2,660,165</t>
+          <t>$1,730,597</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Instant Family</t>
+          <t>Waves</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>$2,518,231</t>
+          <t>$1,658,790</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>The Art of Self-Defense</t>
+          <t>Wild Rose</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>$2,410,914</t>
+          <t>$1,635,117</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Arctic2019 Re-release</t>
+          <t>The Aftermath</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>$2,410,795</t>
+          <t>$1,618,497</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Welcome to Marwen</t>
+          <t>Western Stars</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>$2,405,625</t>
+          <t>$1,581,681</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>My People, My Country</t>
+          <t>Red Joan</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$2,356,683</t>
+          <t>$1,579,730</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Promare</t>
+          <t>After the Wedding</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>$2,287,950</t>
+          <t>$1,574,258</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Super 30</t>
+          <t>Extreme Job</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>$2,269,878</t>
+          <t>$1,565,885</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Faustina: Love and Mercy</t>
+          <t>The Kid</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>$2,243,180</t>
+          <t>$1,508,593</t>
         </is>
       </c>
     </row>
